--- a/assets/data/flights.xlsx
+++ b/assets/data/flights.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C352842-DA4D-4AEA-ADF1-C558DEC4C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="51">
   <si>
     <t>start</t>
   </si>
@@ -174,12 +170,15 @@
   </si>
   <si>
     <t>Rome</t>
+  </si>
+  <si>
+    <t>Bristol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,22 +489,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -525,7 +524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -545,7 +544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -565,7 +564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -585,7 +584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -605,7 +604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -625,7 +624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -645,7 +644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -665,7 +664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -685,7 +684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -705,7 +704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5</v>
       </c>
@@ -725,7 +724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>6</v>
       </c>
@@ -745,7 +744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
@@ -765,7 +764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -785,7 +784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -805,7 +804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
@@ -825,7 +824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -845,7 +844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>9</v>
       </c>
@@ -865,7 +864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9</v>
       </c>
@@ -885,7 +884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10</v>
       </c>
@@ -905,7 +904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10</v>
       </c>
@@ -925,7 +924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>11</v>
       </c>
@@ -945,7 +944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>12</v>
       </c>
@@ -965,7 +964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>12</v>
       </c>
@@ -985,7 +984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>13</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>14</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>14</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ref="A29:A93" si="0">A27+1</f>
         <v>15</v>
@@ -1086,7 +1085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1107,7 +1106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1128,7 +1127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1149,7 +1148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1170,7 +1169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1191,7 +1190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1212,7 +1211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1233,7 +1232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1254,7 +1253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>A37+1</f>
         <v>20</v>
@@ -1275,7 +1274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>A38</f>
         <v>20</v>
@@ -1296,7 +1295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1317,7 +1316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1338,7 +1337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1359,7 +1358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1380,7 +1379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1401,7 +1400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1422,7 +1421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1443,7 +1442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1464,7 +1463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1485,7 +1484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1506,7 +1505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1527,7 +1526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1548,7 +1547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1569,7 +1568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1590,7 +1589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1611,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1632,7 +1631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1653,7 +1652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1674,7 +1673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1695,7 +1694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1716,7 +1715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1737,7 +1736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1758,7 +1757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1779,7 +1778,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1800,7 +1799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1821,7 +1820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1842,7 +1841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1863,7 +1862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1884,7 +1883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1905,7 +1904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1926,7 +1925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1947,7 +1946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1968,7 +1967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1989,7 +1988,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2010,7 +2009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2031,7 +2030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2052,7 +2051,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2073,7 +2072,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2094,7 +2093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2115,7 +2114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2136,7 +2135,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2157,7 +2156,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2178,7 +2177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2199,7 +2198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2220,7 +2219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2241,7 +2240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2262,7 +2261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2283,7 +2282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2304,7 +2303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2325,7 +2324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2346,7 +2345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2367,7 +2366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2388,7 +2387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2409,7 +2408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2430,7 +2429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" ref="A94:A117" si="1">A92+1</f>
         <v>48</v>
@@ -2451,7 +2450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2472,7 +2471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2493,7 +2492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2514,7 +2513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2535,7 +2534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2556,7 +2555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2577,7 +2576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2598,7 +2597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2619,7 +2618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2640,7 +2639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2661,7 +2660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2682,7 +2681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2703,7 +2702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2724,7 +2723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2745,7 +2744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2766,7 +2765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2787,7 +2786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -2808,7 +2807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2829,7 +2828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2850,7 +2849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2871,7 +2870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2892,7 +2891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2913,7 +2912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2934,7 +2933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" ref="A118:A119" si="2">A116+1</f>
         <v>60</v>
@@ -2955,7 +2954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -2976,7 +2975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" ref="A120:A178" si="3">A118+1</f>
         <v>61</v>
@@ -2997,7 +2996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -3018,7 +3017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -3039,7 +3038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -3060,7 +3059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -3081,7 +3080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -3102,7 +3101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <f>A125</f>
         <v>63</v>
@@ -3123,7 +3122,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <f>A126</f>
         <v>63</v>
@@ -3144,7 +3143,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" ref="A128:A134" si="4">A127</f>
         <v>63</v>
@@ -3165,7 +3164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -3186,7 +3185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -3207,7 +3206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" si="4"/>
         <v>63</v>
@@ -3228,7 +3227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <f>A131</f>
         <v>63</v>
@@ -3249,7 +3248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <f>A132+1</f>
         <v>64</v>
@@ -3270,7 +3269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>64</v>
@@ -3291,7 +3290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -3312,7 +3311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -3333,7 +3332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -3354,7 +3353,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -3375,7 +3374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -3396,7 +3395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -3417,7 +3416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -3438,7 +3437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -3459,7 +3458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <f>A142</f>
         <v>68</v>
@@ -3480,7 +3479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -3501,7 +3500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -3522,7 +3521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -3543,7 +3542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -3564,7 +3563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -3585,7 +3584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -3606,7 +3605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <f>A149</f>
         <v>71</v>
@@ -3627,7 +3626,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <f>A150</f>
         <v>71</v>
@@ -3648,7 +3647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -3669,7 +3668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -3690,7 +3689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <f>A153</f>
         <v>72</v>
@@ -3711,7 +3710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -3732,7 +3731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -3753,7 +3752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <f>A156</f>
         <v>73</v>
@@ -3774,7 +3773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -3795,7 +3794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -3816,7 +3815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -3837,7 +3836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -3858,7 +3857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -3879,7 +3878,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -3900,7 +3899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -3921,7 +3920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -3942,7 +3941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -3963,7 +3962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -3984,7 +3983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -4005,7 +4004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <f>A168+1</f>
         <v>80</v>
@@ -4026,7 +4025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -4047,7 +4046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -4068,7 +4067,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -4089,7 +4088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -4110,7 +4109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -4131,7 +4130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -4152,7 +4151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -4173,7 +4172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -4194,7 +4193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -4215,7 +4214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179">
         <f t="shared" ref="A179:A186" si="5">A177+1</f>
         <v>85</v>
@@ -4236,7 +4235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -4257,7 +4256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <f t="shared" si="5"/>
         <v>86</v>
@@ -4278,7 +4277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <f t="shared" si="5"/>
         <v>86</v>
@@ -4299,7 +4298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183">
         <f t="shared" si="5"/>
         <v>87</v>
@@ -4320,7 +4319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <f t="shared" si="5"/>
         <v>87</v>
@@ -4341,7 +4340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <f t="shared" si="5"/>
         <v>88</v>
@@ -4362,7 +4361,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186">
         <f t="shared" si="5"/>
         <v>88</v>
@@ -4383,7 +4382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>89</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>89</v>
       </c>
@@ -4421,6 +4420,326 @@
       </c>
       <c r="F188" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>90</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>44</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189">
+        <v>2022</v>
+      </c>
+      <c r="F189" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>90</v>
+      </c>
+      <c r="B190" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190">
+        <v>2022</v>
+      </c>
+      <c r="F190" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>91</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>50</v>
+      </c>
+      <c r="D191">
+        <v>8</v>
+      </c>
+      <c r="E191">
+        <v>2022</v>
+      </c>
+      <c r="F191" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>91</v>
+      </c>
+      <c r="B192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>2022</v>
+      </c>
+      <c r="F192" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>92</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>44</v>
+      </c>
+      <c r="D193">
+        <v>10</v>
+      </c>
+      <c r="E193">
+        <v>2022</v>
+      </c>
+      <c r="F193" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>92</v>
+      </c>
+      <c r="B194" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>10</v>
+      </c>
+      <c r="E194">
+        <v>2022</v>
+      </c>
+      <c r="F194" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>93</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>6</v>
+      </c>
+      <c r="E195">
+        <v>2023</v>
+      </c>
+      <c r="F195" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>93</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196">
+        <v>6</v>
+      </c>
+      <c r="E196">
+        <v>2023</v>
+      </c>
+      <c r="F196" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>94</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197">
+        <v>2023</v>
+      </c>
+      <c r="F197" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>94</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198">
+        <v>9</v>
+      </c>
+      <c r="E198">
+        <v>2023</v>
+      </c>
+      <c r="F198" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>95</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" t="s">
+        <v>44</v>
+      </c>
+      <c r="D199">
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>2023</v>
+      </c>
+      <c r="F199" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>95</v>
+      </c>
+      <c r="B200" t="s">
+        <v>44</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200">
+        <v>12</v>
+      </c>
+      <c r="E200">
+        <v>2023</v>
+      </c>
+      <c r="F200" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>96</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+      <c r="E201">
+        <v>2024</v>
+      </c>
+      <c r="F201" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>96</v>
+      </c>
+      <c r="B202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+      <c r="E202">
+        <v>2024</v>
+      </c>
+      <c r="F202" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>97</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>2024</v>
+      </c>
+      <c r="F203" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>97</v>
+      </c>
+      <c r="B204" t="s">
+        <v>26</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>2024</v>
+      </c>
+      <c r="F204" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
